--- a/output/fit_clients/fit_round_251.xlsx
+++ b/output/fit_clients/fit_round_251.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1702141436.054279</v>
+        <v>1916743198.419344</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09845443408804463</v>
+        <v>0.07235612691035544</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02969651259134069</v>
+        <v>0.03332922550439449</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>851070673.6500214</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1940912260.055325</v>
+        <v>2485114646.033166</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1212010386352759</v>
+        <v>0.1763676858245541</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03852175980004893</v>
+        <v>0.04937686381895121</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>970456160.9284973</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4068706405.71157</v>
+        <v>3802872180.034535</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1111308893196861</v>
+        <v>0.116041709050889</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03787761930402651</v>
+        <v>0.02707711475390838</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>91</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2034353221.891175</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3260465444.349112</v>
+        <v>4045824128.922373</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1073167380088462</v>
+        <v>0.0806532386792987</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04103625893859999</v>
+        <v>0.04219523727561374</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>99</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1630232774.793171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2556242160.176326</v>
+        <v>2099937792.40331</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1207644741933986</v>
+        <v>0.1464431011995516</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05428514539144314</v>
+        <v>0.04722954367837376</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>40</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1278121049.474589</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2802381616.85253</v>
+        <v>2830935843.635089</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08943649617900051</v>
+        <v>0.07901434922524682</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03200571465690732</v>
+        <v>0.03852112658526042</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>79</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1401190792.321456</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2467642948.955143</v>
+        <v>3263487057.367746</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1763202173081975</v>
+        <v>0.1856749165728683</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03300572630252301</v>
+        <v>0.02650629312783841</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>80</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1233821477.55967</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1468816352.053807</v>
+        <v>1958433975.02534</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1267193365116568</v>
+        <v>0.1250661363473799</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03038057501346774</v>
+        <v>0.02739753648249828</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>734408276.3327359</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4126080792.746312</v>
+        <v>4867992400.58794</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1897314035146134</v>
+        <v>0.2006631789809802</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0417453330108736</v>
+        <v>0.04287211490047989</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>106</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2063040428.015528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3201378889.415122</v>
+        <v>2921416526.528776</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1916926555803196</v>
+        <v>0.168483095218422</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03303278871817579</v>
+        <v>0.03207657000361815</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>104</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1600689401.668086</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2107353368.588775</v>
+        <v>3011313170.129083</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1454579916470405</v>
+        <v>0.1663646253606938</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0332044420805672</v>
+        <v>0.03507629846451585</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>84</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1053676620.576839</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4188482906.6903</v>
+        <v>5188364918.787248</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09812785708770341</v>
+        <v>0.07924020025451613</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02293642814049893</v>
+        <v>0.02840795388762868</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>84</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2094241498.688534</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3285041824.307683</v>
+        <v>3474300779.533304</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1736267713404277</v>
+        <v>0.1368748963749814</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03412271954779231</v>
+        <v>0.03983705180628808</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>82</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1642520925.944387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1279391897.805186</v>
+        <v>1392922951.608476</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0834529549212832</v>
+        <v>0.09607577981283412</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04932279950565006</v>
+        <v>0.03928239743026684</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>639695984.3804978</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2306491389.590541</v>
+        <v>2043449246.913866</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09614725190849212</v>
+        <v>0.08887048750373491</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04342353045076919</v>
+        <v>0.04237908211538645</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>47</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1153245742.903762</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4067127659.950469</v>
+        <v>3849490832.657152</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1600174882256813</v>
+        <v>0.1173064021681268</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05311487190787752</v>
+        <v>0.03438558886223687</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>73</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2033563861.259578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2484519955.678077</v>
+        <v>3320940081.784015</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1318315051206629</v>
+        <v>0.1572540816261956</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02551793685347697</v>
+        <v>0.03452887109536646</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>82</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1242260045.375016</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1023145957.083498</v>
+        <v>938954677.7899865</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1917525440836359</v>
+        <v>0.171993397879156</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01733168777271643</v>
+        <v>0.02594105395371011</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>511573013.4136308</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1900615160.913881</v>
+        <v>2235989613.286411</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1255246975971304</v>
+        <v>0.1080490847736747</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02891136961435185</v>
+        <v>0.03185957217333138</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>36</v>
-      </c>
-      <c r="J20" t="n">
-        <v>950307617.3882819</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2141295585.722255</v>
+        <v>2024939199.127744</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06712746471737295</v>
+        <v>0.08718348407782511</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0376984247972339</v>
+        <v>0.0372348967096896</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>19</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1070647815.290423</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2642286120.860029</v>
+        <v>3415096725.317601</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08842911745904249</v>
+        <v>0.09277130200176002</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04636085510732474</v>
+        <v>0.04921000173733454</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>69</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1321143143.375545</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1164613790.629289</v>
+        <v>1344412926.584041</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1667071375893719</v>
+        <v>0.1215036460881662</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04219966914274591</v>
+        <v>0.04861293453245838</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>582306937.7562743</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3830407614.685593</v>
+        <v>3815421134.858195</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1287809951206083</v>
+        <v>0.09780124301849522</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03055700454508176</v>
+        <v>0.03720458614535177</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>73</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1915203786.712551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1312845884.263364</v>
+        <v>1156445420.61385</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07986882854485436</v>
+        <v>0.1156166914402751</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01951910095389153</v>
+        <v>0.02737805197039583</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>656422934.1235702</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>954215885.0366852</v>
+        <v>933678764.7975212</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09837788258563293</v>
+        <v>0.1060673839528378</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02530786239468533</v>
+        <v>0.02937922389709718</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>477107903.3712803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3290282350.6686</v>
+        <v>3902921905.79687</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1419151936312424</v>
+        <v>0.1439794015280739</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01684226495582705</v>
+        <v>0.02105856542561971</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>56</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1645141220.73027</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3462178991.083683</v>
+        <v>2586041653.293555</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1330145060443989</v>
+        <v>0.1332341846059916</v>
       </c>
       <c r="G28" t="n">
-        <v>0.037214367286568</v>
+        <v>0.04271422710341894</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>82</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1731089546.862556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4557152193.476198</v>
+        <v>4608331081.478692</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09649490668012431</v>
+        <v>0.1489979309064646</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03237726663228394</v>
+        <v>0.03781591368841117</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>111</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2278576075.019045</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1880195627.954539</v>
+        <v>1845688349.404549</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09180336034005397</v>
+        <v>0.1213196883782143</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02939180572373374</v>
+        <v>0.02870305484881189</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>940097837.7847861</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1260204165.500956</v>
+        <v>1166187954.817959</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1108748482257468</v>
+        <v>0.07014408505310879</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05020075044540969</v>
+        <v>0.03730742275246419</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>630102020.0264353</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1589319880.324153</v>
+        <v>1561241394.294944</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08657246999875598</v>
+        <v>0.1040459887075864</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02823192444122314</v>
+        <v>0.03834502696805312</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>794660027.0189121</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1936317754.861906</v>
+        <v>2159987867.372577</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1305811965939622</v>
+        <v>0.2002201886559213</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05091055334026396</v>
+        <v>0.0605216515291111</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>77</v>
-      </c>
-      <c r="J33" t="n">
-        <v>968158963.6356846</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1445688566.243716</v>
+        <v>1179462215.346021</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1139403989497271</v>
+        <v>0.07552266055377554</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02499150028258849</v>
+        <v>0.02666307222018945</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>722844247.9188439</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1366648448.979456</v>
+        <v>850874768.3534893</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08554168885469186</v>
+        <v>0.08417628179945733</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04496359675679974</v>
+        <v>0.03158973960061245</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>683324162.6657848</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2664323152.864396</v>
+        <v>2959533041.017307</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1366583775602242</v>
+        <v>0.1526374118585533</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02015787231851714</v>
+        <v>0.02743454930381564</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>63</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1332161585.252546</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2824040005.157593</v>
+        <v>2921818516.455604</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06957469475722271</v>
+        <v>0.1113476271005322</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02835560471954389</v>
+        <v>0.02964474712928076</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>65</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1412020143.238854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2129035360.410831</v>
+        <v>1503382068.667015</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1207261639855265</v>
+        <v>0.08657663007793825</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03992371306437079</v>
+        <v>0.02715188428242329</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1064517640.595516</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2064396039.379894</v>
+        <v>2155353560.951863</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1491923122872038</v>
+        <v>0.1603156042881338</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02535520335585224</v>
+        <v>0.03252645549195467</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1032198004.428059</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1536598735.928374</v>
+        <v>1284129735.869658</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1064964441227742</v>
+        <v>0.151463086013687</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05563450173295214</v>
+        <v>0.04252371381274121</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>768299324.9915727</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2120579461.918307</v>
+        <v>2503769952.67149</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1438286216386766</v>
+        <v>0.1231248601353122</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02970611937685279</v>
+        <v>0.04457066993905497</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>60</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1060289793.418218</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3172624535.106962</v>
+        <v>3223478088.591335</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1158463884245358</v>
+        <v>0.09438607303535629</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04439881840791466</v>
+        <v>0.0335085106890877</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>85</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1586312239.871642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2988067738.015289</v>
+        <v>2561020536.568938</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1800894116844676</v>
+        <v>0.1398943738980681</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02080874197069103</v>
+        <v>0.02259842784188504</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>89</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1494033868.568295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1581832598.745064</v>
+        <v>1572286929.813396</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07544430302697742</v>
+        <v>0.06844958763640022</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03350754217453546</v>
+        <v>0.02888335706091197</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>790916322.2653941</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2187777987.314278</v>
+        <v>1756370638.048882</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1894018214254495</v>
+        <v>0.1895150953227323</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04922720039715898</v>
+        <v>0.04706392684113685</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1093889003.416985</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5671509079.941387</v>
+        <v>5325097318.937332</v>
       </c>
       <c r="F46" t="n">
-        <v>0.162921291623023</v>
+        <v>0.1327042705519977</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06123809137572924</v>
+        <v>0.04535717580005091</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>89</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2835754605.194991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3881510163.713128</v>
+        <v>3406325981.540228</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1553801141923654</v>
+        <v>0.1346174281976154</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05614350687111543</v>
+        <v>0.04877453773404439</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>67</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1940755074.252455</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3605099900.460738</v>
+        <v>4684001242.01617</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07951598892797629</v>
+        <v>0.08250973345840887</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02722135673473704</v>
+        <v>0.03701316375250892</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>82</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1802550007.526427</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1448384383.517712</v>
+        <v>1319183494.798472</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1245617724814208</v>
+        <v>0.1948594142974112</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04019372760459313</v>
+        <v>0.03867368205288677</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>724192231.8052489</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2540385479.21734</v>
+        <v>3342011036.025658</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1243752563437509</v>
+        <v>0.1620288344237319</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03901177959707272</v>
+        <v>0.04162065359380737</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>86</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1270192832.118814</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1517102345.624419</v>
+        <v>1492557056.424463</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1806062012103061</v>
+        <v>0.1728696577765855</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05287216755616758</v>
+        <v>0.05020439254044141</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>758551172.9682606</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3942810704.830925</v>
+        <v>4619138812.004921</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1125290925205782</v>
+        <v>0.1238223819093511</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04269399384025158</v>
+        <v>0.04583898460434938</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>104</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1971405412.25443</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3037321972.695728</v>
+        <v>2719668709.940115</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2004957986968877</v>
+        <v>0.2048849007170384</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02357718172563936</v>
+        <v>0.02981807152993643</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>72</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1518661016.167518</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3854828186.35345</v>
+        <v>4387678432.432308</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1429401252721837</v>
+        <v>0.119826050210619</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03814895507498103</v>
+        <v>0.04438536638498235</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>81</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1927414145.840613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4175524620.554374</v>
+        <v>3757319805.645099</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2184131711885837</v>
+        <v>0.216416095079505</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02773487095012202</v>
+        <v>0.02740459747283145</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2087762292.905031</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1467367065.677813</v>
+        <v>1369011219.429441</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1495816494885472</v>
+        <v>0.1511715987414793</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03633616472753435</v>
+        <v>0.03750099036663324</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>733683579.8968731</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3581492332.060061</v>
+        <v>3303711225.257515</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1224825602796674</v>
+        <v>0.1383572901899139</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02490285685872102</v>
+        <v>0.01841422557211785</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>80</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1790746219.25317</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1519654540.915361</v>
+        <v>1181533294.271513</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1687187982407362</v>
+        <v>0.1545078143726643</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03933226873236585</v>
+        <v>0.02968683188702819</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>759827299.7828707</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5387054022.451675</v>
+        <v>4088742335.542486</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1190537392789927</v>
+        <v>0.09234125718928737</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04411813299028652</v>
+        <v>0.04661819203450752</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>68</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2693526920.266645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2355775260.35176</v>
+        <v>3135727018.204869</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1785095445084316</v>
+        <v>0.1705470718264305</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0311513727180933</v>
+        <v>0.02776336778331838</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>80</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1177887632.940707</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2336667534.609561</v>
+        <v>3395433578.339336</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1265109610184533</v>
+        <v>0.1767597854365452</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03280997029693458</v>
+        <v>0.02512340194308784</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>88</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1168333810.322605</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1557896171.561912</v>
+        <v>1733980542.937535</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1444453647274821</v>
+        <v>0.1350201718825803</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04608655647689158</v>
+        <v>0.04870801658446495</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>778948077.5366842</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4610504675.072307</v>
+        <v>4910950125.643978</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07348663851922396</v>
+        <v>0.08948749580275797</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04238006496757206</v>
+        <v>0.03448184770346503</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>71</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2305252372.658464</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4816230397.110972</v>
+        <v>4189993790.877653</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1222225384231259</v>
+        <v>0.184515697305827</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03241920245697451</v>
+        <v>0.02470949114575412</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>78</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2408115291.812693</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5020277850.149271</v>
+        <v>5668119276.921741</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1716504252880896</v>
+        <v>0.1574861621239715</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02299265139576802</v>
+        <v>0.02899689849550806</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>90</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2510138882.775532</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5621063432.457016</v>
+        <v>3589695691.661911</v>
       </c>
       <c r="F66" t="n">
-        <v>0.137059289989223</v>
+        <v>0.1312220262138553</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04069921197524078</v>
+        <v>0.03975177665893601</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>73</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2810531776.696738</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2573442319.184834</v>
+        <v>2887927262.831897</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09312929205943117</v>
+        <v>0.09870812542373335</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03139753855509951</v>
+        <v>0.04834502775712457</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>82</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1286721213.965162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6034534936.858396</v>
+        <v>4280011769.027086</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1530309442297109</v>
+        <v>0.1372583706281091</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04021261481769847</v>
+        <v>0.03873497827212932</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>80</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3017267587.502261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2251145783.579985</v>
+        <v>1577048625.321043</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1289331753746121</v>
+        <v>0.1511479941877533</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05131631961441584</v>
+        <v>0.05611965803630772</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1125572929.239513</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3581802602.078103</v>
+        <v>2923231165.577361</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06921213721910892</v>
+        <v>0.08365616574563148</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03420083843653524</v>
+        <v>0.04339684914340081</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>71</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1790901315.864687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3786277438.412238</v>
+        <v>5026170524.726263</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1177117201885416</v>
+        <v>0.1625727600839732</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02850883316144905</v>
+        <v>0.03134717683988388</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>92</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1893138734.266343</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2059059415.063214</v>
+        <v>1461525671.273283</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09104840386139501</v>
+        <v>0.09367785038961063</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03673301138723069</v>
+        <v>0.03255832884086158</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1029529644.362894</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2781991633.470796</v>
+        <v>2491041157.766577</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1066942463729692</v>
+        <v>0.10753020208918</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03464440592956373</v>
+        <v>0.0461059060283423</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>96</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1390995832.657103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2947855292.241075</v>
+        <v>3010681925.331375</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1699441713771141</v>
+        <v>0.1375615647505268</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02602277664790889</v>
+        <v>0.02645343091491128</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>86</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1473927716.015651</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1691141231.303478</v>
+        <v>2003168234.403108</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1038615261494928</v>
+        <v>0.1598430231283086</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03246537009007871</v>
+        <v>0.03420988237061579</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>845570608.7353035</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4166010178.743696</v>
+        <v>3705145041.587195</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1112131267672501</v>
+        <v>0.116308173861812</v>
       </c>
       <c r="G76" t="n">
-        <v>0.021987444934135</v>
+        <v>0.03145420139040871</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2083005081.068477</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1453203391.183628</v>
+        <v>1448811804.141225</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1832562565988414</v>
+        <v>0.1729148305687856</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02843554501416783</v>
+        <v>0.02606794517460782</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>726601676.3207058</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3686128434.255445</v>
+        <v>3561368455.465128</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09215285111912733</v>
+        <v>0.08746613671689349</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04842600210676772</v>
+        <v>0.05545192427573332</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>87</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1843064205.327974</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1273936375.888073</v>
+        <v>1310493003.487042</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1773506329982139</v>
+        <v>0.12275908932762</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02533043864119039</v>
+        <v>0.02958434737471544</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>636968182.5742081</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5301393487.577237</v>
+        <v>3781387448.087728</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06928974927424975</v>
+        <v>0.09436011085052876</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03264658201728998</v>
+        <v>0.0282878597541042</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>53</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2650696807.969526</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3975973314.855402</v>
+        <v>4895470779.660831</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1156978922287303</v>
+        <v>0.09850966269285846</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02413319740135805</v>
+        <v>0.02864023474429792</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>55</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1987986619.747032</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5405285755.066676</v>
+        <v>4144610932.418577</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1499629675882643</v>
+        <v>0.1360272242882522</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01915814616075847</v>
+        <v>0.0296072389276229</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>89</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2702642838.829198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1596511715.256762</v>
+        <v>2491365707.15537</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1239736921410764</v>
+        <v>0.1285680748430097</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0323117296195633</v>
+        <v>0.04452551144918168</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>798255792.6734862</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1668615535.126343</v>
+        <v>2487760032.31395</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1139650820324025</v>
+        <v>0.1006082499380159</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04883206322881031</v>
+        <v>0.04082495135337671</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>834307821.0781626</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2615133222.316439</v>
+        <v>3166048396.877735</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1744426367396174</v>
+        <v>0.137212061205505</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04479447232833667</v>
+        <v>0.03794355715265266</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>95</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1307566628.812445</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2642822008.055988</v>
+        <v>1796148517.415428</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1326858640953373</v>
+        <v>0.1667578640446191</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01896917237987812</v>
+        <v>0.01858111605896313</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>32</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1321411121.018598</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1462528993.261259</v>
+        <v>1491747156.584789</v>
       </c>
       <c r="F87" t="n">
-        <v>0.186178355171337</v>
+        <v>0.1499227998050983</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04174489773209772</v>
+        <v>0.04260162691276709</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>731264619.5041846</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2978048707.902003</v>
+        <v>2430434146.819555</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1530766598499775</v>
+        <v>0.1331329058448799</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03053498655631429</v>
+        <v>0.0273018496911223</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>98</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1489024382.214119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3249562310.012547</v>
+        <v>3334169548.992424</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1107051043034354</v>
+        <v>0.09764462887274487</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03895412034152734</v>
+        <v>0.03205101311050299</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>84</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1624781174.80403</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1488301401.010364</v>
+        <v>1537309894.412359</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1209913096193272</v>
+        <v>0.1060691758836961</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05432338691393443</v>
+        <v>0.04471308365963415</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>744150677.0575523</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1724530598.648103</v>
+        <v>1704696806.561275</v>
       </c>
       <c r="F91" t="n">
-        <v>0.130838919052306</v>
+        <v>0.1634971417889418</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04565830717371836</v>
+        <v>0.04373719792186211</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>862265308.3195705</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2240509035.725863</v>
+        <v>1946097275.696002</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08357913302466381</v>
+        <v>0.09168014696189379</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03594039978970944</v>
+        <v>0.04470455244062043</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>64</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1120254482.194464</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3125786151.654026</v>
+        <v>3358765010.618431</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09290147627200697</v>
+        <v>0.1228439928804268</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04151424720762704</v>
+        <v>0.03897655599772734</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>80</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1562893132.964587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1876832520.723875</v>
+        <v>1963448972.864493</v>
       </c>
       <c r="F94" t="n">
-        <v>0.154021827257748</v>
+        <v>0.1448616958669267</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02944903909440237</v>
+        <v>0.03607725401962896</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>938416242.6824434</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2796780358.586373</v>
+        <v>2290051904.876488</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1259079460530846</v>
+        <v>0.0902069371153265</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03946379204646645</v>
+        <v>0.05280210308954462</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>60</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1398390193.778494</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2054350546.780357</v>
+        <v>1847811341.732632</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08563636966360809</v>
+        <v>0.121023547258393</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02943941209470582</v>
+        <v>0.03131205791767031</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1027175254.553543</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4644163860.623809</v>
+        <v>3991164410.43641</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1582555682922402</v>
+        <v>0.1745421540376731</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0239431050958726</v>
+        <v>0.02773736271214692</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>81</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2322082038.478967</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2814740360.991827</v>
+        <v>3573884460.1777</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07948909502841259</v>
+        <v>0.09388465358254208</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03043003952771805</v>
+        <v>0.03175222127080406</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>67</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1407370152.647065</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3311268242.27844</v>
+        <v>3296958560.762591</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1021986764228517</v>
+        <v>0.1325106291273009</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02462546598271267</v>
+        <v>0.0247307491626423</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>79</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1655634129.679591</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4458441095.703361</v>
+        <v>4169461047.745635</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1210967643454918</v>
+        <v>0.1639597085134316</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02733079856843158</v>
+        <v>0.02045407236789346</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>79</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2229220655.122496</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3173154452.557598</v>
+        <v>3256913756.606628</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1659675416776514</v>
+        <v>0.1628283601134322</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05140472812639519</v>
+        <v>0.05798766222674408</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>101</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1586577338.186098</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_251.xlsx
+++ b/output/fit_clients/fit_round_251.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1916743198.419344</v>
+        <v>2502919633.120268</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07235612691035544</v>
+        <v>0.08441299494121653</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03332922550439449</v>
+        <v>0.02811322098648433</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2485114646.033166</v>
+        <v>2090616872.250083</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1763676858245541</v>
+        <v>0.1638596425176141</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04937686381895121</v>
+        <v>0.03436962638668985</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3802872180.034535</v>
+        <v>4152359395.50422</v>
       </c>
       <c r="F4" t="n">
-        <v>0.116041709050889</v>
+        <v>0.1388246593179349</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02707711475390838</v>
+        <v>0.03359973309544412</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4045824128.922373</v>
+        <v>3163349647.030584</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0806532386792987</v>
+        <v>0.09721488286129772</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04219523727561374</v>
+        <v>0.05083968528293493</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2099937792.40331</v>
+        <v>2228847992.482541</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1464431011995516</v>
+        <v>0.09377323628240977</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04722954367837376</v>
+        <v>0.03955269733666288</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2830935843.635089</v>
+        <v>3113512484.930991</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07901434922524682</v>
+        <v>0.07588776477753197</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03852112658526042</v>
+        <v>0.04004280377071937</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3263487057.367746</v>
+        <v>2861680964.530146</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1856749165728683</v>
+        <v>0.2103518544213674</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02650629312783841</v>
+        <v>0.03140115991155745</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1958433975.02534</v>
+        <v>1622557108.316722</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1250661363473799</v>
+        <v>0.1341131524928234</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02739753648249828</v>
+        <v>0.03439982531994148</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4867992400.58794</v>
+        <v>5803802894.768653</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2006631789809802</v>
+        <v>0.1945213262536235</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04287211490047989</v>
+        <v>0.0537594592228758</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,16 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2921416526.528776</v>
+        <v>3951393202.740047</v>
       </c>
       <c r="F11" t="n">
-        <v>0.168483095218422</v>
+        <v>0.1444213247707177</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03207657000361815</v>
+        <v>0.04641696704235389</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3011313170.129083</v>
+        <v>3098979977.229345</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1663646253606938</v>
+        <v>0.132501571272216</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03507629846451585</v>
+        <v>0.04852262434877169</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5188364918.787248</v>
+        <v>5214841119.425438</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07924020025451613</v>
+        <v>0.09643586016118395</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02840795388762868</v>
+        <v>0.02100124435520716</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3474300779.533304</v>
+        <v>2619370711.977844</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1368748963749814</v>
+        <v>0.1637203419172748</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03983705180628808</v>
+        <v>0.03097259705814051</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1392922951.608476</v>
+        <v>1268799486.774168</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09607577981283412</v>
+        <v>0.082147140731043</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03928239743026684</v>
+        <v>0.03211184053284209</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,16 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2043449246.913866</v>
+        <v>2736682703.193559</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08887048750373491</v>
+        <v>0.1065523642696487</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04237908211538645</v>
+        <v>0.04547571121904734</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3849490832.657152</v>
+        <v>5226740263.410207</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1173064021681268</v>
+        <v>0.1627915898368642</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03438558886223687</v>
+        <v>0.03570689169020438</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3320940081.784015</v>
+        <v>3103266898.611768</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1572540816261956</v>
+        <v>0.1381821700878098</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03452887109536646</v>
+        <v>0.02389420557130772</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>938954677.7899865</v>
+        <v>1041582620.111606</v>
       </c>
       <c r="F19" t="n">
-        <v>0.171993397879156</v>
+        <v>0.142165295185525</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02594105395371011</v>
+        <v>0.02066110794493017</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2235989613.286411</v>
+        <v>2677286342.146657</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1080490847736747</v>
+        <v>0.1377190023593533</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03185957217333138</v>
+        <v>0.02905283362075492</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2024939199.127744</v>
+        <v>2094544962.361071</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08718348407782511</v>
+        <v>0.08402454716326239</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0372348967096896</v>
+        <v>0.03439404141392512</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3415096725.317601</v>
+        <v>3036865201.444313</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09277130200176002</v>
+        <v>0.09412413619745422</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04921000173733454</v>
+        <v>0.05146027582384122</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1344412926.584041</v>
+        <v>1509854945.90965</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1215036460881662</v>
+        <v>0.1549382322948795</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04861293453245838</v>
+        <v>0.03456821266719216</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3815421134.858195</v>
+        <v>3322019868.07064</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09780124301849522</v>
+        <v>0.1411883157528285</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03720458614535177</v>
+        <v>0.03219509393554309</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1156445420.61385</v>
+        <v>1481688816.776109</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1156166914402751</v>
+        <v>0.07810766729104444</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02737805197039583</v>
+        <v>0.02882220106200058</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>933678764.7975212</v>
+        <v>950357928.4665782</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1060673839528378</v>
+        <v>0.09987654348274816</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02937922389709718</v>
+        <v>0.03209467371242886</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3902921905.79687</v>
+        <v>3978397927.671195</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1439794015280739</v>
+        <v>0.1465191325428566</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02105856542561971</v>
+        <v>0.02443855084043494</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2586041653.293555</v>
+        <v>3002780009.282399</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1332341846059916</v>
+        <v>0.1299570961003707</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04271422710341894</v>
+        <v>0.03735808608288966</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4608331081.478692</v>
+        <v>4108509287.722899</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1489979309064646</v>
+        <v>0.1204959951271914</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03781591368841117</v>
+        <v>0.04156657893738641</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1845688349.404549</v>
+        <v>2394989017.81356</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1213196883782143</v>
+        <v>0.1122003464523464</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02870305484881189</v>
+        <v>0.03505915905839518</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1166187954.817959</v>
+        <v>1437152101.970011</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07014408505310879</v>
+        <v>0.09553146916171819</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03730742275246419</v>
+        <v>0.04943810319662661</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1561241394.294944</v>
+        <v>1196169681.188803</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1040459887075864</v>
+        <v>0.08159369890692696</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03834502696805312</v>
+        <v>0.03188678044444031</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2159987867.372577</v>
+        <v>2856249010.705997</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2002201886559213</v>
+        <v>0.1514118068744927</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0605216515291111</v>
+        <v>0.05718661223792564</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1179462215.346021</v>
+        <v>1259323469.803056</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07552266055377554</v>
+        <v>0.07928869990815177</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02666307222018945</v>
+        <v>0.02295015673562545</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>850874768.3534893</v>
+        <v>862548066.1447514</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08417628179945733</v>
+        <v>0.09139308963221685</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03158973960061245</v>
+        <v>0.03305777205625873</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2959533041.017307</v>
+        <v>3221688492.867852</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1526374118585533</v>
+        <v>0.1242828546198421</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02743454930381564</v>
+        <v>0.02674747798437825</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2921818516.455604</v>
+        <v>2411253364.237047</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1113476271005322</v>
+        <v>0.1059776727344215</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02964474712928076</v>
+        <v>0.02909014974206849</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1503382068.667015</v>
+        <v>1815181386.298079</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08657663007793825</v>
+        <v>0.1103866220757369</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02715188428242329</v>
+        <v>0.03168585986830569</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2155353560.951863</v>
+        <v>2104673584.833839</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1603156042881338</v>
+        <v>0.1841549715443985</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03252645549195467</v>
+        <v>0.02443448522025593</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1284129735.869658</v>
+        <v>1406327840.128092</v>
       </c>
       <c r="F40" t="n">
-        <v>0.151463086013687</v>
+        <v>0.1129919192496993</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04252371381274121</v>
+        <v>0.05770915424725936</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2503769952.67149</v>
+        <v>2133571183.85698</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1231248601353122</v>
+        <v>0.1095444275031442</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04457066993905497</v>
+        <v>0.03437677787707173</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3223478088.591335</v>
+        <v>2879928447.477764</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09438607303535629</v>
+        <v>0.08287941210554481</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0335085106890877</v>
+        <v>0.02967031009311344</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2561020536.568938</v>
+        <v>2963537244.584362</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1398943738980681</v>
+        <v>0.1759436585669905</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02259842784188504</v>
+        <v>0.02460198263133493</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1572286929.813396</v>
+        <v>1435052023.448101</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06844958763640022</v>
+        <v>0.08387578684206907</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02888335706091197</v>
+        <v>0.02634787164595638</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1756370638.048882</v>
+        <v>2459159677.258927</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1895150953227323</v>
+        <v>0.1688190381161775</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04706392684113685</v>
+        <v>0.04368674252371735</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5325097318.937332</v>
+        <v>5623591376.659727</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1327042705519977</v>
+        <v>0.1260713200558664</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04535717580005091</v>
+        <v>0.05207896996865199</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3406325981.540228</v>
+        <v>4728931295.524032</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1346174281976154</v>
+        <v>0.1322243820859246</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04877453773404439</v>
+        <v>0.05029305000463377</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4684001242.01617</v>
+        <v>3113753881.541511</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08250973345840887</v>
+        <v>0.09433559810709466</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03701316375250892</v>
+        <v>0.02496856351034619</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1319183494.798472</v>
+        <v>1647976053.493459</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1948594142974112</v>
+        <v>0.1926461647962072</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03867368205288677</v>
+        <v>0.04271822700562626</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3342011036.025658</v>
+        <v>3042829489.861369</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1620288344237319</v>
+        <v>0.1676538648679611</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04162065359380737</v>
+        <v>0.03363085375128164</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1492557056.424463</v>
+        <v>1140746403.981567</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1728696577765855</v>
+        <v>0.1490334717012512</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05020439254044141</v>
+        <v>0.0382361727823675</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4619138812.004921</v>
+        <v>3454352381.220369</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1238223819093511</v>
+        <v>0.1084494913241009</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04583898460434938</v>
+        <v>0.04665890029479054</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2719668709.940115</v>
+        <v>3104382545.298935</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2048849007170384</v>
+        <v>0.1563745964643538</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02981807152993643</v>
+        <v>0.02707115542923417</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4387678432.432308</v>
+        <v>4073639449.381212</v>
       </c>
       <c r="F54" t="n">
-        <v>0.119826050210619</v>
+        <v>0.1397964914648495</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04438536638498235</v>
+        <v>0.03740960850015281</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3757319805.645099</v>
+        <v>4375866502.775086</v>
       </c>
       <c r="F55" t="n">
-        <v>0.216416095079505</v>
+        <v>0.2158518277487076</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02740459747283145</v>
+        <v>0.03064427474458703</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1369011219.429441</v>
+        <v>1537205359.244334</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1511715987414793</v>
+        <v>0.1037070424915643</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03750099036663324</v>
+        <v>0.05228718984800195</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3303711225.257515</v>
+        <v>3312245317.315113</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1383572901899139</v>
+        <v>0.1194045186304132</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01841422557211785</v>
+        <v>0.02027419343287257</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1181533294.271513</v>
+        <v>1815288889.093486</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1545078143726643</v>
+        <v>0.1864151196896018</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02968683188702819</v>
+        <v>0.02985843137260678</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4088742335.542486</v>
+        <v>3465885797.93143</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09234125718928737</v>
+        <v>0.105562484834656</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04661819203450752</v>
+        <v>0.04959880356540007</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3135727018.204869</v>
+        <v>3243153208.926967</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1705470718264305</v>
+        <v>0.1966323490994643</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02776336778331838</v>
+        <v>0.03234132824696134</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3395433578.339336</v>
+        <v>3052957213.894634</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1767597854365452</v>
+        <v>0.1687230255045108</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02512340194308784</v>
+        <v>0.02366405349923174</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1733980542.937535</v>
+        <v>1629314994.00567</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1350201718825803</v>
+        <v>0.1253185662966685</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04870801658446495</v>
+        <v>0.04333778039586571</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4910950125.643978</v>
+        <v>4865698444.850484</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08948749580275797</v>
+        <v>0.06727794884466767</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03448184770346503</v>
+        <v>0.03339859049786603</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4189993790.877653</v>
+        <v>4446961056.075797</v>
       </c>
       <c r="F64" t="n">
-        <v>0.184515697305827</v>
+        <v>0.1733478889245161</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02470949114575412</v>
+        <v>0.02905907492724385</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5668119276.921741</v>
+        <v>3737954597.739671</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1574861621239715</v>
+        <v>0.1565977228510162</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02899689849550806</v>
+        <v>0.02910688689056885</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,13 +2278,13 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3589695691.661911</v>
+        <v>3997732806.791294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1312220262138553</v>
+        <v>0.1081547545310255</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03975177665893601</v>
+        <v>0.03757960919316464</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2887927262.831897</v>
+        <v>2811025129.069947</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09870812542373335</v>
+        <v>0.06986880070318094</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04834502775712457</v>
+        <v>0.04409228801137123</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4280011769.027086</v>
+        <v>5812291065.560121</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1372583706281091</v>
+        <v>0.1045079876131897</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03873497827212932</v>
+        <v>0.03635473710308616</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1577048625.321043</v>
+        <v>2012342174.364825</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1511479941877533</v>
+        <v>0.1779378001081398</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05611965803630772</v>
+        <v>0.05810620852564023</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2923231165.577361</v>
+        <v>2797324312.601073</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08365616574563148</v>
+        <v>0.09545459610393678</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04339684914340081</v>
+        <v>0.03920607808323846</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5026170524.726263</v>
+        <v>3489273228.886022</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1625727600839732</v>
+        <v>0.1526225583714495</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03134717683988388</v>
+        <v>0.03404417640761545</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1461525671.273283</v>
+        <v>1831676164.333124</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09367785038961063</v>
+        <v>0.0827933257155641</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03255832884086158</v>
+        <v>0.0456600827296999</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2491041157.766577</v>
+        <v>2437267283.660246</v>
       </c>
       <c r="F73" t="n">
-        <v>0.10753020208918</v>
+        <v>0.07407777925919747</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0461059060283423</v>
+        <v>0.04459936016536663</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3010681925.331375</v>
+        <v>2620667373.423678</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1375615647505268</v>
+        <v>0.1193412360108849</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02645343091491128</v>
+        <v>0.0290839597771072</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2003168234.403108</v>
+        <v>2468181667.431661</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1598430231283086</v>
+        <v>0.1300301126228897</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03420988237061579</v>
+        <v>0.02704343909923313</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3705145041.587195</v>
+        <v>5237402488.729299</v>
       </c>
       <c r="F76" t="n">
-        <v>0.116308173861812</v>
+        <v>0.07953285860367569</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03145420139040871</v>
+        <v>0.02489384698580092</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1448811804.141225</v>
+        <v>1656332472.476406</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1729148305687856</v>
+        <v>0.1872073093073326</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02606794517460782</v>
+        <v>0.02335824738439068</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3561368455.465128</v>
+        <v>3039927907.225488</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08746613671689349</v>
+        <v>0.1086848281598598</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05545192427573332</v>
+        <v>0.04057174002756882</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1310493003.487042</v>
+        <v>1373335463.025944</v>
       </c>
       <c r="F79" t="n">
-        <v>0.12275908932762</v>
+        <v>0.1659111846326938</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02958434737471544</v>
+        <v>0.03416827550538325</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3781387448.087728</v>
+        <v>5046054985.029346</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09436011085052876</v>
+        <v>0.1118729105589466</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0282878597541042</v>
+        <v>0.03528183478071296</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4895470779.660831</v>
+        <v>3345622610.47487</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09850966269285846</v>
+        <v>0.109975769232157</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02864023474429792</v>
+        <v>0.02758750049730408</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4144610932.418577</v>
+        <v>3585846530.449556</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1360272242882522</v>
+        <v>0.1821505515267522</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0296072389276229</v>
+        <v>0.01974908467100879</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2491365707.15537</v>
+        <v>2183435781.847041</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1285680748430097</v>
+        <v>0.1405362137477438</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04452551144918168</v>
+        <v>0.03579344409789138</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2487760032.31395</v>
+        <v>1623639261.636375</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1006082499380159</v>
+        <v>0.1148482025503832</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04082495135337671</v>
+        <v>0.04496819978392547</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3166048396.877735</v>
+        <v>2943088740.184299</v>
       </c>
       <c r="F85" t="n">
-        <v>0.137212061205505</v>
+        <v>0.1442690226879869</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03794355715265266</v>
+        <v>0.04524613235449821</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1796148517.415428</v>
+        <v>2707033726.911559</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1667578640446191</v>
+        <v>0.121424568536181</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01858111605896313</v>
+        <v>0.02266161813124603</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1491747156.584789</v>
+        <v>1308613570.631822</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1499227998050983</v>
+        <v>0.1717640036559927</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04260162691276709</v>
+        <v>0.02828552738949885</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2430434146.819555</v>
+        <v>3373496406.69622</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1331329058448799</v>
+        <v>0.1618177454069689</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0273018496911223</v>
+        <v>0.02904690099111515</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3334169548.992424</v>
+        <v>2415189505.150372</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09764462887274487</v>
+        <v>0.1430629199354928</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03205101311050299</v>
+        <v>0.03940352789422637</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1537309894.412359</v>
+        <v>1826227414.86439</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1060691758836961</v>
+        <v>0.1159636023935525</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04471308365963415</v>
+        <v>0.04170675373665347</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1704696806.561275</v>
+        <v>1498747615.458722</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1634971417889418</v>
+        <v>0.1603282716941208</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04373719792186211</v>
+        <v>0.05966540032501715</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1946097275.696002</v>
+        <v>2920499993.655101</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09168014696189379</v>
+        <v>0.09692880066965254</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04470455244062043</v>
+        <v>0.03718357263234354</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3358765010.618431</v>
+        <v>3621086366.093682</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1228439928804268</v>
+        <v>0.1158896990515669</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03897655599772734</v>
+        <v>0.03839154986947658</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1963448972.864493</v>
+        <v>1702658024.423833</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1448616958669267</v>
+        <v>0.1588929791558275</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03607725401962896</v>
+        <v>0.03724360341596367</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2290051904.876488</v>
+        <v>3046082146.832767</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0902069371153265</v>
+        <v>0.1199670701030622</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05280210308954462</v>
+        <v>0.03806068661228085</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1847811341.732632</v>
+        <v>1816988873.574292</v>
       </c>
       <c r="F96" t="n">
-        <v>0.121023547258393</v>
+        <v>0.08904012615282324</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03131205791767031</v>
+        <v>0.04516152231320918</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3991164410.43641</v>
+        <v>4550168755.204877</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1745421540376731</v>
+        <v>0.1211782685240525</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02773736271214692</v>
+        <v>0.02556438044533497</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3573884460.1777</v>
+        <v>2387737800.979971</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09388465358254208</v>
+        <v>0.09639197837671129</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03175222127080406</v>
+        <v>0.02924397334880212</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3296958560.762591</v>
+        <v>2640606250.911084</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1325106291273009</v>
+        <v>0.09927486298922024</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0247307491626423</v>
+        <v>0.03523155260082814</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4169461047.745635</v>
+        <v>2998392455.07758</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1639597085134316</v>
+        <v>0.1558137066194852</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02045407236789346</v>
+        <v>0.01978107720000345</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3256913756.606628</v>
+        <v>2741860493.147794</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1628283601134322</v>
+        <v>0.1908627105751697</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05798766222674408</v>
+        <v>0.05099938217223689</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_251.xlsx
+++ b/output/fit_clients/fit_round_251.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2502919633.120268</v>
+        <v>1577893192.765042</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08441299494121653</v>
+        <v>0.1050833015307995</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02811322098648433</v>
+        <v>0.02803903027642317</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2090616872.250083</v>
+        <v>2099801522.112176</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1638596425176141</v>
+        <v>0.1304984356414068</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03436962638668985</v>
+        <v>0.04176219074566955</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4152359395.50422</v>
+        <v>4677364237.130173</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1388246593179349</v>
+        <v>0.1275859628890787</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03359973309544412</v>
+        <v>0.03394625319933053</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>135</v>
+      </c>
+      <c r="J4" t="n">
+        <v>251</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3163349647.030584</v>
+        <v>2755858714.479537</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09721488286129772</v>
+        <v>0.09371306670575992</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05083968528293493</v>
+        <v>0.04014862699553098</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>103</v>
+      </c>
+      <c r="J5" t="n">
+        <v>250</v>
+      </c>
+      <c r="K5" t="n">
+        <v>61.30167754841162</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2228847992.482541</v>
+        <v>2284156866.756427</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09377323628240977</v>
+        <v>0.1434886956669455</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03955269733666288</v>
+        <v>0.03508995549197614</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3113512484.930991</v>
+        <v>1906279409.855718</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07588776477753197</v>
+        <v>0.07422781561749114</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04004280377071937</v>
+        <v>0.03452068791342234</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2861680964.530146</v>
+        <v>2891056119.870082</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2103518544213674</v>
+        <v>0.1741920944126432</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03140115991155745</v>
+        <v>0.02149941917164409</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>68</v>
+      </c>
+      <c r="J8" t="n">
+        <v>244</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1622557108.316722</v>
+        <v>1513744675.06124</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1341131524928234</v>
+        <v>0.1267907838372292</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03439982531994148</v>
+        <v>0.0318621182391012</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5803802894.768653</v>
+        <v>4172469114.551157</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1945213262536235</v>
+        <v>0.1552429089564442</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0537594592228758</v>
+        <v>0.04459875079382783</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>228</v>
+      </c>
+      <c r="J10" t="n">
+        <v>251</v>
+      </c>
+      <c r="K10" t="n">
+        <v>106.4913151931204</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +820,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3951393202.740047</v>
+        <v>2740630816.280235</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1444213247707177</v>
+        <v>0.1379714456005857</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04641696704235389</v>
+        <v>0.04242573807538886</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>103</v>
+      </c>
+      <c r="J11" t="n">
+        <v>249</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3098979977.229345</v>
+        <v>3109200886.912724</v>
       </c>
       <c r="F12" t="n">
-        <v>0.132501571272216</v>
+        <v>0.1708027772267513</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04852262434877169</v>
+        <v>0.04727068383957351</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5214841119.425438</v>
+        <v>5302842512.985578</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09643586016118395</v>
+        <v>0.06239576835621521</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02100124435520716</v>
+        <v>0.02089444717091574</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>127</v>
+      </c>
+      <c r="J13" t="n">
+        <v>251</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +919,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2619370711.977844</v>
+        <v>2941203469.681805</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1637203419172748</v>
+        <v>0.1681136341301331</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03097259705814051</v>
+        <v>0.03598418186425595</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J14" t="n">
+        <v>250</v>
+      </c>
+      <c r="K14" t="n">
+        <v>64.93659402887153</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1268799486.774168</v>
+        <v>1794913812.449236</v>
       </c>
       <c r="F15" t="n">
-        <v>0.082147140731043</v>
+        <v>0.08438198219745972</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03211184053284209</v>
+        <v>0.03444018671466053</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2736682703.193559</v>
+        <v>2694678979.821019</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1065523642696487</v>
+        <v>0.09840610379665544</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04547571121904734</v>
+        <v>0.04408519147954737</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5226740263.410207</v>
+        <v>4756857084.639132</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1627915898368642</v>
+        <v>0.1483655522731788</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03570689169020438</v>
+        <v>0.05093672180295004</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>121</v>
+      </c>
+      <c r="J17" t="n">
+        <v>250</v>
+      </c>
+      <c r="K17" t="n">
+        <v>93.17982744983452</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3103266898.611768</v>
+        <v>2636027461.548706</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1381821700878098</v>
+        <v>0.1821601241479853</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02389420557130772</v>
+        <v>0.02693550826078685</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>63</v>
+      </c>
+      <c r="J18" t="n">
+        <v>250</v>
+      </c>
+      <c r="K18" t="n">
+        <v>50.97368998633488</v>
       </c>
     </row>
     <row r="19">
@@ -962,17 +1106,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1041582620.111606</v>
+        <v>1213888855.27089</v>
       </c>
       <c r="F19" t="n">
-        <v>0.142165295185525</v>
+        <v>0.1450578428578066</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02066110794493017</v>
+        <v>0.01667132535156916</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2677286342.146657</v>
+        <v>1907397781.616094</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1377190023593533</v>
+        <v>0.1456588343099718</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02905283362075492</v>
+        <v>0.02866866720910142</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2094544962.361071</v>
+        <v>2404253966.154897</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08402454716326239</v>
+        <v>0.06181773537222562</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03439404141392512</v>
+        <v>0.04481826058931748</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1205,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3036865201.444313</v>
+        <v>3058103331.104412</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09412413619745422</v>
+        <v>0.1247216333839805</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05146027582384122</v>
+        <v>0.04130201244120742</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>65</v>
+      </c>
+      <c r="J22" t="n">
+        <v>250</v>
+      </c>
+      <c r="K22" t="n">
+        <v>61.44011895582631</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1509854945.90965</v>
+        <v>1533663412.518814</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1549382322948795</v>
+        <v>0.1537568358718537</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03456821266719216</v>
+        <v>0.04240039638898499</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3322019868.07064</v>
+        <v>3196041593.708101</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1411883157528285</v>
+        <v>0.1130578592947876</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03219509393554309</v>
+        <v>0.03213963487059653</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>74</v>
+      </c>
+      <c r="J24" t="n">
+        <v>246</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1481688816.776109</v>
+        <v>1284211691.674007</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07810766729104444</v>
+        <v>0.1062757493382967</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02882220106200058</v>
+        <v>0.02439400444516245</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>950357928.4665782</v>
+        <v>1041498144.473053</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09987654348274816</v>
+        <v>0.1090253821972134</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03209467371242886</v>
+        <v>0.02767187415552708</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1382,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3978397927.671195</v>
+        <v>4137868787.190015</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1465191325428566</v>
+        <v>0.1107930830171095</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02443855084043494</v>
+        <v>0.01740713700632409</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>101</v>
+      </c>
+      <c r="J27" t="n">
+        <v>251</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3002780009.282399</v>
+        <v>2778273058.783074</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1299570961003707</v>
+        <v>0.1253750035039339</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03735808608288966</v>
+        <v>0.03099778117501421</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>50</v>
+      </c>
+      <c r="J28" t="n">
+        <v>244</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4108509287.722899</v>
+        <v>4810168123.040401</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1204959951271914</v>
+        <v>0.1233717561837021</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04156657893738641</v>
+        <v>0.03545183606072656</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>239</v>
+      </c>
+      <c r="J29" t="n">
+        <v>251</v>
+      </c>
+      <c r="K29" t="n">
+        <v>109.0829170620371</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2394989017.81356</v>
+        <v>1762198289.759492</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1122003464523464</v>
+        <v>0.1121343264866141</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03505915905839518</v>
+        <v>0.02936372382859409</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1530,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1437152101.970011</v>
+        <v>1215413119.13106</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09553146916171819</v>
+        <v>0.07156688281524153</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04943810319662661</v>
+        <v>0.05194895418167218</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1196169681.188803</v>
+        <v>1498668078.603773</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08159369890692696</v>
+        <v>0.09340290162317604</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03188678044444031</v>
+        <v>0.03482580406077299</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2856249010.705997</v>
+        <v>2610787179.111159</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1514118068744927</v>
+        <v>0.1881438852733198</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05718661223792564</v>
+        <v>0.04895533597193544</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1259323469.803056</v>
+        <v>1430367147.830624</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07928869990815177</v>
+        <v>0.09858943106690519</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02295015673562545</v>
+        <v>0.0216769680387333</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>862548066.1447514</v>
+        <v>943905742.5828847</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09139308963221685</v>
+        <v>0.07573924514054203</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03305777205625873</v>
+        <v>0.02806876734111819</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3221688492.867852</v>
+        <v>3188739802.376424</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1242828546198421</v>
+        <v>0.1426924534107698</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02674747798437825</v>
+        <v>0.02249594680140697</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2411253364.237047</v>
+        <v>2598705997.317198</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1059776727344215</v>
+        <v>0.07542448403409178</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02909014974206849</v>
+        <v>0.04042548565448449</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1815181386.298079</v>
+        <v>1725444464.804943</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1103866220757369</v>
+        <v>0.07629171343137801</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03168585986830569</v>
+        <v>0.03477415287565944</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2104673584.833839</v>
+        <v>1404434607.821147</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1841549715443985</v>
+        <v>0.154292517561526</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02443448522025593</v>
+        <v>0.02266263034620484</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1406327840.128092</v>
+        <v>1689372351.035973</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1129919192496993</v>
+        <v>0.1303337916975322</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05770915424725936</v>
+        <v>0.05934427078588302</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2133571183.85698</v>
+        <v>1889389439.06906</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1095444275031442</v>
+        <v>0.1470021970211049</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03437677787707173</v>
+        <v>0.04543950197907456</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2879928447.477764</v>
+        <v>2955272915.769392</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08287941210554481</v>
+        <v>0.0884921344162608</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02967031009311344</v>
+        <v>0.04218465043303841</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>104</v>
+      </c>
+      <c r="J42" t="n">
+        <v>249</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2963537244.584362</v>
+        <v>3043644669.844297</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1759436585669905</v>
+        <v>0.1247973421140528</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02460198263133493</v>
+        <v>0.01989025552994908</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1435052023.448101</v>
+        <v>2073829379.559927</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08387578684206907</v>
+        <v>0.06237863686280012</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02634787164595638</v>
+        <v>0.02328580590375937</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2459159677.258927</v>
+        <v>2415437597.181759</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1688190381161775</v>
+        <v>0.1908795324024855</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04368674252371735</v>
+        <v>0.04078565028074724</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5623591376.659727</v>
+        <v>4384816425.497784</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1260713200558664</v>
+        <v>0.1137111862927791</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05207896996865199</v>
+        <v>0.0566192573406386</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>144</v>
+      </c>
+      <c r="J46" t="n">
+        <v>251</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4728931295.524032</v>
+        <v>5158305408.941788</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1322243820859246</v>
+        <v>0.1918016344816502</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05029305000463377</v>
+        <v>0.04798314962089473</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>113</v>
+      </c>
+      <c r="J47" t="n">
+        <v>250</v>
+      </c>
+      <c r="K47" t="n">
+        <v>84.57196911384416</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2127,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3113753881.541511</v>
+        <v>3546187479.760035</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09433559810709466</v>
+        <v>0.09609112059790412</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02496856351034619</v>
+        <v>0.03213917576625056</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>125</v>
+      </c>
+      <c r="J48" t="n">
+        <v>250</v>
+      </c>
+      <c r="K48" t="n">
+        <v>90.79231926210002</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1647976053.493459</v>
+        <v>1597643690.629543</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1926461647962072</v>
+        <v>0.1330076591783779</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04271822700562626</v>
+        <v>0.04083857529073268</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2199,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3042829489.861369</v>
+        <v>4086309583.986867</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1676538648679611</v>
+        <v>0.1491274905501451</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03363085375128164</v>
+        <v>0.04448503376880517</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>81</v>
+      </c>
+      <c r="J50" t="n">
+        <v>251</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1140746403.981567</v>
+        <v>1028135970.662004</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1490334717012512</v>
+        <v>0.1278732562570583</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0382361727823675</v>
+        <v>0.0455976978838292</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3454352381.220369</v>
+        <v>5302634752.723481</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1084494913241009</v>
+        <v>0.08682012913006987</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04665890029479054</v>
+        <v>0.03913957485604028</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>161</v>
+      </c>
+      <c r="J52" t="n">
+        <v>251</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,22 +2298,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3104382545.298935</v>
+        <v>3647735154.999845</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1563745964643538</v>
+        <v>0.1975504284575089</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02707115542923417</v>
+        <v>0.02318880852738159</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>34</v>
+      </c>
+      <c r="J53" t="n">
+        <v>250</v>
+      </c>
+      <c r="K53" t="n">
+        <v>91.45982893205559</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4073639449.381212</v>
+        <v>3113314941.735238</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1397964914648495</v>
+        <v>0.1484786113568471</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03740960850015281</v>
+        <v>0.04190555237894884</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>132</v>
+      </c>
+      <c r="J54" t="n">
+        <v>249</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,17 +2376,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4375866502.775086</v>
+        <v>4291240000.722656</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2158518277487076</v>
+        <v>0.2184984521968432</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03064427474458703</v>
+        <v>0.02673025289636524</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>112</v>
+      </c>
+      <c r="J55" t="n">
+        <v>251</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1537205359.244334</v>
+        <v>1599492848.255335</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1037070424915643</v>
+        <v>0.1478315388597275</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05228718984800195</v>
+        <v>0.05737711802088615</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3312245317.315113</v>
+        <v>3343165279.11593</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1194045186304132</v>
+        <v>0.1658805134400182</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02027419343287257</v>
+        <v>0.02239854598477286</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>99</v>
+      </c>
+      <c r="J57" t="n">
+        <v>250</v>
+      </c>
+      <c r="K57" t="n">
+        <v>79.15060027739676</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1815288889.093486</v>
+        <v>1156377444.491332</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1864151196896018</v>
+        <v>0.1825461793264308</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02985843137260678</v>
+        <v>0.03644543047391446</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2518,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3465885797.93143</v>
+        <v>3409069806.158612</v>
       </c>
       <c r="F59" t="n">
-        <v>0.105562484834656</v>
+        <v>0.09374233511721461</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04959880356540007</v>
+        <v>0.04422396215187648</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
+      <c r="I59" t="n">
+        <v>121</v>
+      </c>
+      <c r="J59" t="n">
+        <v>249</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3243153208.926967</v>
+        <v>3376144305.417651</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1966323490994643</v>
+        <v>0.1862539140202734</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03234132824696134</v>
+        <v>0.0233147070727163</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>37</v>
+      </c>
+      <c r="J60" t="n">
+        <v>248</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3052957213.894634</v>
+        <v>3394487632.284855</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1687230255045108</v>
+        <v>0.1684849928663767</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02366405349923174</v>
+        <v>0.02698336472581513</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>7</v>
+      </c>
+      <c r="J61" t="n">
+        <v>249</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1629314994.00567</v>
+        <v>1346090000.388866</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1253185662966685</v>
+        <v>0.1757751921818995</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04333778039586571</v>
+        <v>0.03659641113461872</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4865698444.850484</v>
+        <v>5574474292.996463</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06727794884466767</v>
+        <v>0.07686669107145767</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03339859049786603</v>
+        <v>0.03313638731087643</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>122</v>
+      </c>
+      <c r="J63" t="n">
+        <v>251</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4446961056.075797</v>
+        <v>3474778274.291456</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1733478889245161</v>
+        <v>0.1253659752091733</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02905907492724385</v>
+        <v>0.02927251173264599</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>124</v>
+      </c>
+      <c r="J64" t="n">
+        <v>250</v>
+      </c>
+      <c r="K64" t="n">
+        <v>81.84896139001285</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3737954597.739671</v>
+        <v>5201771877.657308</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1565977228510162</v>
+        <v>0.156034160939392</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02910688689056885</v>
+        <v>0.02852660833410988</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>201</v>
+      </c>
+      <c r="J65" t="n">
+        <v>251</v>
+      </c>
+      <c r="K65" t="n">
+        <v>103.3468150269345</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2767,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3997732806.791294</v>
+        <v>5507663184.516966</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1081547545310255</v>
+        <v>0.1421154531461878</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03757960919316464</v>
+        <v>0.04600697186580471</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>124</v>
+      </c>
+      <c r="J66" t="n">
+        <v>250</v>
+      </c>
+      <c r="K66" t="n">
+        <v>92.20019670736696</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2811025129.069947</v>
+        <v>2464801390.604292</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06986880070318094</v>
+        <v>0.0837019999243345</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04409228801137123</v>
+        <v>0.034699692524475</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>6</v>
+      </c>
+      <c r="J67" t="n">
+        <v>243</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5812291065.560121</v>
+        <v>4638790581.447206</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1045079876131897</v>
+        <v>0.1494706528928575</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03635473710308616</v>
+        <v>0.04464315219468949</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>128</v>
+      </c>
+      <c r="J68" t="n">
+        <v>250</v>
+      </c>
+      <c r="K68" t="n">
+        <v>101.3990577629613</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2876,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2012342174.364825</v>
+        <v>1642161351.850987</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1779378001081398</v>
+        <v>0.134961812973798</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05810620852564023</v>
+        <v>0.05085749662876197</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2797324312.601073</v>
+        <v>2811118164.530188</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09545459610393678</v>
+        <v>0.08956713625381972</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03920607808323846</v>
+        <v>0.0335740143256178</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>39</v>
+      </c>
+      <c r="J70" t="n">
+        <v>243</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3489273228.886022</v>
+        <v>3830344166.822093</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1526225583714495</v>
+        <v>0.1363309489974284</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03404417640761545</v>
+        <v>0.02833728111181648</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>189</v>
+      </c>
+      <c r="J71" t="n">
+        <v>251</v>
+      </c>
+      <c r="K71" t="n">
+        <v>104.3547900658523</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1831676164.333124</v>
+        <v>2127829160.072494</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0827933257155641</v>
+        <v>0.07968330009262628</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0456600827296999</v>
+        <v>0.0519484640831145</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2437267283.660246</v>
+        <v>2195478861.324157</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07407777925919747</v>
+        <v>0.07647627289785734</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04459936016536663</v>
+        <v>0.04386490520054548</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>15</v>
+      </c>
+      <c r="J73" t="n">
+        <v>248</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2620667373.423678</v>
+        <v>3595449809.515086</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1193412360108849</v>
+        <v>0.1707399330208607</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0290839597771072</v>
+        <v>0.02889087318142224</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>71</v>
+      </c>
+      <c r="J74" t="n">
+        <v>251</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2468181667.431661</v>
+        <v>1879899883.129799</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1300301126228897</v>
+        <v>0.1444991346910586</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02704343909923313</v>
+        <v>0.02919080658524357</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3123,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5237402488.729299</v>
+        <v>4616967219.677859</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07953285860367569</v>
+        <v>0.07599296554045275</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02489384698580092</v>
+        <v>0.03054408526278296</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>117</v>
+      </c>
+      <c r="J76" t="n">
+        <v>250</v>
+      </c>
+      <c r="K76" t="n">
+        <v>91.39006649372139</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3160,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1656332472.476406</v>
+        <v>1392126335.64566</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1872073093073326</v>
+        <v>0.1445903043707307</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02335824738439068</v>
+        <v>0.02201224951707751</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3039927907.225488</v>
+        <v>3409911549.241382</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1086848281598598</v>
+        <v>0.1299012344940779</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04057174002756882</v>
+        <v>0.03659708099022865</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>124</v>
+      </c>
+      <c r="J78" t="n">
+        <v>251</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1373335463.025944</v>
+        <v>1724222349.156024</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1659111846326938</v>
+        <v>0.1578705560404479</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03416827550538325</v>
+        <v>0.03440148757051998</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5046054985.029346</v>
+        <v>4799679974.005434</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1118729105589466</v>
+        <v>0.09470608534636824</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03528183478071296</v>
+        <v>0.02513960422864748</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>122</v>
+      </c>
+      <c r="J80" t="n">
+        <v>251</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3300,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3345622610.47487</v>
+        <v>3395693737.774431</v>
       </c>
       <c r="F81" t="n">
-        <v>0.109975769232157</v>
+        <v>0.1168979519898722</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02758750049730408</v>
+        <v>0.02208583624175675</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>115</v>
+      </c>
+      <c r="J81" t="n">
+        <v>249</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3585846530.449556</v>
+        <v>5153115121.396498</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1821505515267522</v>
+        <v>0.1686151408611139</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01974908467100879</v>
+        <v>0.02029504336870958</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>190</v>
+      </c>
+      <c r="J82" t="n">
+        <v>251</v>
+      </c>
+      <c r="K82" t="n">
+        <v>102.2559240654819</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2183435781.847041</v>
+        <v>2140551666.005865</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1405362137477438</v>
+        <v>0.1347914124046718</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03579344409789138</v>
+        <v>0.02862354464008219</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1623639261.636375</v>
+        <v>2036086766.370004</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1148482025503832</v>
+        <v>0.09967515831689064</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04496819978392547</v>
+        <v>0.04302686944452707</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2943088740.184299</v>
+        <v>3670464710.632443</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1442690226879869</v>
+        <v>0.1296896651564537</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04524613235449821</v>
+        <v>0.04536166487289617</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>35</v>
+      </c>
+      <c r="J85" t="n">
+        <v>251</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2707033726.911559</v>
+        <v>2244657658.757787</v>
       </c>
       <c r="F86" t="n">
-        <v>0.121424568536181</v>
+        <v>0.1314508472637506</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02266161813124603</v>
+        <v>0.02540656367051525</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1308613570.631822</v>
+        <v>953696567.9958066</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1717640036559927</v>
+        <v>0.1188764365380718</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02828552738949885</v>
+        <v>0.0288525165029444</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3373496406.69622</v>
+        <v>3485071595.444886</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1618177454069689</v>
+        <v>0.1188853542617903</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02904690099111515</v>
+        <v>0.03094686440229017</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>36</v>
+      </c>
+      <c r="J88" t="n">
+        <v>251</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2415189505.150372</v>
+        <v>3131369175.209095</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1430629199354928</v>
+        <v>0.1314179109648424</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03940352789422637</v>
+        <v>0.03994554261726371</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>19</v>
+      </c>
+      <c r="J89" t="n">
+        <v>248</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1826227414.86439</v>
+        <v>1342612404.056237</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1159636023935525</v>
+        <v>0.1121508714259881</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04170675373665347</v>
+        <v>0.04682682496673059</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1498747615.458722</v>
+        <v>1388146181.802317</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1603282716941208</v>
+        <v>0.1876537098665171</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05966540032501715</v>
+        <v>0.06139085922114816</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2920499993.655101</v>
+        <v>2574007912.895359</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09692880066965254</v>
+        <v>0.1050584299386376</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03718357263234354</v>
+        <v>0.04552818171386642</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3722,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3621086366.093682</v>
+        <v>4381513281.464544</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1158896990515669</v>
+        <v>0.1028815097075221</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03839154986947658</v>
+        <v>0.03914390286545872</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>111</v>
+      </c>
+      <c r="J93" t="n">
+        <v>250</v>
+      </c>
+      <c r="K93" t="n">
+        <v>99.85341783497155</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1702658024.423833</v>
+        <v>1982196065.177299</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1588929791558275</v>
+        <v>0.1456551282103848</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03724360341596367</v>
+        <v>0.03689631445029701</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3046082146.832767</v>
+        <v>2457573528.365585</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1199670701030622</v>
+        <v>0.0847876935477852</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03806068661228085</v>
+        <v>0.03270091682634359</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1816988873.574292</v>
+        <v>1798347820.688049</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08904012615282324</v>
+        <v>0.1205979666508302</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04516152231320918</v>
+        <v>0.0416704068358933</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4550168755.204877</v>
+        <v>4152389537.28498</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1211782685240525</v>
+        <v>0.1454077681693162</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02556438044533497</v>
+        <v>0.02476647016340292</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>122</v>
+      </c>
+      <c r="J97" t="n">
+        <v>251</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2387737800.979971</v>
+        <v>3290931665.17591</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09639197837671129</v>
+        <v>0.1218274105423226</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02924397334880212</v>
+        <v>0.0288283836874915</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>61</v>
+      </c>
+      <c r="J98" t="n">
+        <v>247</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2640606250.911084</v>
+        <v>2111450492.087611</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09927486298922024</v>
+        <v>0.09290069855835559</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03523155260082814</v>
+        <v>0.02180474820395406</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2998392455.07758</v>
+        <v>3007473627.240834</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1558137066194852</v>
+        <v>0.1489913294925792</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01978107720000345</v>
+        <v>0.02709620854869001</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>105</v>
+      </c>
+      <c r="J100" t="n">
+        <v>250</v>
+      </c>
+      <c r="K100" t="n">
+        <v>62.49780777320803</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2741860493.147794</v>
+        <v>3612789843.576368</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1908627105751697</v>
+        <v>0.1763694461379929</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05099938217223689</v>
+        <v>0.03873083425048531</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>251</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
